--- a/processo.xlsx
+++ b/processo.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Nome</t>
   </si>
@@ -37,13 +37,10 @@
     <t>Peso 5</t>
   </si>
   <si>
-    <t>Dinho</t>
+    <t>maycon</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>Zeca</t>
   </si>
 </sst>
 </file>
@@ -420,7 +417,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -460,71 +457,19 @@
         <v>9</v>
       </c>
       <c r="D2">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>90</v>
-      </c>
-      <c r="E3">
-        <v>75</v>
-      </c>
-      <c r="F3">
-        <v>85</v>
-      </c>
-      <c r="G3">
-        <v>80</v>
-      </c>
-      <c r="H3">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="b">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>40</v>
-      </c>
-      <c r="E4">
-        <v>45</v>
-      </c>
-      <c r="F4">
-        <v>85</v>
-      </c>
-      <c r="G4">
-        <v>30</v>
-      </c>
-      <c r="H4">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/processo.xlsx
+++ b/processo.xlsx
@@ -37,7 +37,7 @@
     <t>Peso 5</t>
   </si>
   <si>
-    <t>maycon</t>
+    <t>asdasd</t>
   </si>
   <si>
     <t/>

--- a/processo.xlsx
+++ b/processo.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Nome</t>
   </si>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>Peso 5</t>
-  </si>
-  <si>
-    <t>asdasd</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -417,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -444,32 +438,6 @@
       </c>
       <c r="H1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/processo.xlsx
+++ b/processo.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Nome</t>
   </si>
@@ -35,6 +35,27 @@
   </si>
   <si>
     <t>Peso 5</t>
+  </si>
+  <si>
+    <t>Mateus Leite</t>
+  </si>
+  <si>
+    <t>4:8</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>1200</t>
+  </si>
+  <si>
+    <t>800</t>
   </si>
 </sst>
 </file>
@@ -411,7 +432,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -438,6 +459,32 @@
       </c>
       <c r="H1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/processo.xlsx
+++ b/processo.xlsx
@@ -11,11 +11,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Nome</t>
   </si>
   <si>
+    <t>Data de Nascimento</t>
+  </si>
+  <si>
     <t>Concluiu</t>
   </si>
   <si>
@@ -37,25 +40,22 @@
     <t>Peso 5</t>
   </si>
   <si>
-    <t>Mateus Leite</t>
-  </si>
-  <si>
-    <t>4:8</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>1200</t>
-  </si>
-  <si>
-    <t>800</t>
+    <t>dasd</t>
+  </si>
+  <si>
+    <t>2001-04-03</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>dasdsa</t>
+  </si>
+  <si>
+    <t>2001-12-05</t>
+  </si>
+  <si>
+    <t>czxc</t>
   </si>
 </sst>
 </file>
@@ -432,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -460,31 +460,95 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
         <v>9</v>
       </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
       <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/processo.xlsx
+++ b/processo.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Nome</t>
   </si>
@@ -40,22 +40,25 @@
     <t>Peso 5</t>
   </si>
   <si>
-    <t>dasd</t>
-  </si>
-  <si>
-    <t>2001-04-03</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>dasdsa</t>
+    <t>Juan</t>
   </si>
   <si>
     <t>2001-12-05</t>
   </si>
   <si>
-    <t>czxc</t>
+    <t>0:13</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>500</t>
   </si>
 </sst>
 </file>
@@ -432,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -472,83 +475,25 @@
         <v>10</v>
       </c>
       <c r="C2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
